--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,49 +22,73 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>501201</t>
+  </si>
+  <si>
+    <t>002149</t>
+  </si>
+  <si>
     <t>009547</t>
   </si>
   <si>
-    <t>501201</t>
-  </si>
-  <si>
-    <t>002149</t>
+    <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+  </si>
+  <si>
+    <t>嘉实新优选灵活配置混合</t>
   </si>
   <si>
     <t>华安鼎利混合</t>
   </si>
   <si>
-    <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-  </si>
-  <si>
-    <t>嘉实新优选灵活配置混合</t>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>96.08</t>
+  </si>
+  <si>
+    <t>34.43</t>
   </si>
   <si>
     <t>64.44</t>
   </si>
   <si>
-    <t>96.08</t>
-  </si>
-  <si>
-    <t>34.43</t>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>5.24</t>
   </si>
   <si>
     <t>3.07</t>
   </si>
   <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>5.24</t>
+    <t>0.1417</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>0.0018</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,65 +468,89 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -1,126 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>501201</t>
-  </si>
-  <si>
-    <t>002149</t>
-  </si>
-  <si>
-    <t>009547</t>
-  </si>
-  <si>
-    <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-  </si>
-  <si>
-    <t>嘉实新优选灵活配置混合</t>
-  </si>
-  <si>
-    <t>华安鼎利混合</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>96.08</t>
-  </si>
-  <si>
-    <t>34.43</t>
-  </si>
-  <si>
-    <t>64.44</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>5.24</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>0.1417</t>
-  </si>
-  <si>
-    <t>0.0026</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,115 +446,835 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>690206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.75</v>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.05</v>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2052,13 +2117,1007 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3032,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3043,17 +3044,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3063,14 +3084,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.31</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3079,14 +3122,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.75</v>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3095,14 +3160,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.05</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3111,13 +3198,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3887,7 +3888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3898,17 +3899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3918,14 +3939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.220000000000001</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3934,14 +3977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.31</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3950,14 +4015,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.75</v>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3966,14 +4053,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.05</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3982,13 +4091,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1417</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.81</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>34.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519018</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富均衡增长混合</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.48</t>
+          <t>137.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.05</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7978</t>
+          <t>5.6779</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.01</t>
+          <t>77.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4821</t>
+          <t>3.1815</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005802</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富智能制造股票</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6739</t>
+          <t>0.3634</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -791,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6432</t>
+          <t>0.1866</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -829,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002296</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城行业轮动灵活配置混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2061</t>
+          <t>0.1586</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -867,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002419</t>
+          <t>010322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富盈安灵活配置混合</t>
+          <t>摩根士丹利华鑫新兴产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>95.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1274</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -905,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>014263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>鑫元长三角混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.0759</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -943,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -981,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>470021</t>
+          <t>014571</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合A</t>
+          <t>东吴安享量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1019,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>014264</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>鑫元长三角混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1057,226 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>48.32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.82</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002418</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富优选回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,7 +1083,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1341,32 +1113,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519018</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富均衡增长混合</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.96</t>
+          <t>60.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2777</t>
+          <t>2.5038</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1379,36 +1151,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>519018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>汇添富均衡增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>39.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.38</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5108</t>
+          <t>1.4281</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1417,36 +1189,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>398051</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>中海环保新能源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>22.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>73.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2826</t>
+          <t>1.0222</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1455,36 +1227,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>501081</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2294</t>
+          <t>0.7894</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1493,36 +1265,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002420</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富盈鑫灵活配置混合</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>23.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1278</t>
+          <t>0.7164</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1531,36 +1303,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>470008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>汇添富策略回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.5164</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1569,36 +1341,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>82.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0667</t>
+          <t>0.2818</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1607,36 +1379,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>690006</t>
+          <t>013960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银信用双利债券 - A</t>
+          <t>万家新机遇成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>49.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1645,36 +1417,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>470021</t>
+          <t>660015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合A</t>
+          <t>农银行业轮动混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>76.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.1647</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1683,32 +1455,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>007163</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>浦银安盛环保新能源混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.1415</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1721,22 +1493,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>007164</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>浦银安盛环保新能源混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1746,7 +1518,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0999</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1759,36 +1531,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>013961</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>万家新机遇成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>49.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0604</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1797,32 +1569,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002418</t>
+          <t>001097</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合C</t>
+          <t>华泰柏瑞积极优选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1835,36 +1607,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>580007</t>
+          <t>470021</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴安享量化灵活配置混合</t>
+          <t>汇添富优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1873,32 +1645,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>690206</t>
+          <t>008526</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>民生加银信用双利债券 - C</t>
+          <t>华泰柏瑞行业精选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>83.70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0343</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1911,36 +1683,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006009</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合A</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>61.91</t>
+          <t>73.95</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1949,36 +1721,188 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006010</t>
+          <t>001339</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合C</t>
+          <t>兴银鼎新灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>61.91</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3034,7 +2958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3055,7 +2979,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3085,32 +3009,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>519018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>汇添富均衡增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.92</t>
+          <t>45.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5038</t>
+          <t>1.2777</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3123,36 +3047,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519018</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富均衡增长混合</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.45</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>90.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4281</t>
+          <t>0.5108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3161,36 +3085,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>398051</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海环保新能源混合</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.97</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0222</t>
+          <t>0.2826</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3199,36 +3123,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501081</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7894</t>
+          <t>0.2294</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3237,36 +3161,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>002420</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>汇添富盈鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.96</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7164</t>
+          <t>0.1278</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3275,36 +3199,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>470008</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富策略回报混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5164</t>
+          <t>0.0912</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3313,36 +3237,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.11</t>
+          <t>92.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2818</t>
+          <t>0.0667</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3351,36 +3275,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013960</t>
+          <t>690006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家新机遇成长一年持有期混合A</t>
+          <t>民生加银信用双利债券 - A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>49.51</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2565</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3389,36 +3313,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>660015</t>
+          <t>470021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农银行业轮动混合</t>
+          <t>汇添富优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.32</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1647</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3427,32 +3351,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007163</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浦银安盛环保新能源混合A</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>91.30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1415</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3465,22 +3389,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007164</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>浦银安盛环保新能源混合C</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>74.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3490,7 +3414,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0999</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3503,36 +3427,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>013961</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家新机遇成长一年持有期混合C</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>49.51</t>
+          <t>74.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0604</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3541,32 +3465,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001097</t>
+          <t>002418</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极优选股票</t>
+          <t>汇添富优选回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -3579,36 +3503,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>470021</t>
+          <t>580007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富优选回报灵活配置混合A</t>
+          <t>东吴安享量化灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3617,32 +3541,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008526</t>
+          <t>690206</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞行业精选混合A</t>
+          <t>民生加银信用双利债券 - C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.70</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3655,36 +3579,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>580007</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴安享量化灵活配置混合</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>73.95</t>
+          <t>61.91</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -3693,188 +3617,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001339</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴银鼎新灵活配置混合</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>61.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003456</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信达澳银新目标灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>165317</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>建信丰裕多策略灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002418</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富优选回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008527</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.70</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3909,7 +3681,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3939,36 +3711,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>519018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>汇添富均衡增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>137.48</t>
+          <t>54.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>88.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.6779</t>
+          <t>1.7978</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3977,36 +3749,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>汇添富逆向投资混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.22</t>
+          <t>33.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1815</t>
+          <t>1.4821</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4015,36 +3787,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>005802</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>汇添富智能制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3634</t>
+          <t>0.6739</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4053,32 +3825,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>16.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1866</t>
+          <t>0.6432</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4091,36 +3863,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>002296</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>长城行业轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1586</t>
+          <t>0.2061</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4129,36 +3901,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010322</t>
+          <t>002419</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>汇添富盈安灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1152</t>
+          <t>0.1274</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -4167,36 +3939,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014263</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鑫元长三角混合A</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0759</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4205,36 +3977,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>580007</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴安享量化灵活配置混合</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -4243,36 +4015,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014571</t>
+          <t>470021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴安享量化灵活配置混合C</t>
+          <t>汇添富优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -4281,36 +4053,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014264</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鑫元长三角混合C</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4319,36 +4091,226 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>48.32</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4362,128 +4324,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.81</v>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.220000000000001</v>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.15</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>9.81</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>8.220000000000001</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>15.31</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>2.75</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>5.05</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -583,6 +600,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1056,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1910,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2952,7 +3861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3654,7 +4563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4318,7 +5227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688680-海优新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>9.23</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>9.81</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>8.220000000000001</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>15.31</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>5.05</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -600,6 +617,2106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006738</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银添慧债券A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006739</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银添慧债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +3608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +4082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2819,7 +4936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3861,7 +5978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4563,7 +6680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5227,7 +7344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
